--- a/online_translators/raw_data/questionnaire_sharp_modified.xlsx
+++ b/online_translators/raw_data/questionnaire_sharp_modified.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="25395" windowHeight="12825" tabRatio="862" firstSheet="5" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="25395" windowHeight="12825" tabRatio="862" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="фреймовая анкета_острый" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="csv_ru_en" sheetId="24" r:id="rId16"/>
     <sheet name="csv_ru_fr" sheetId="25" r:id="rId17"/>
     <sheet name="csv_ru_de" sheetId="27" r:id="rId18"/>
+    <sheet name="adj_csv_it" sheetId="32" r:id="rId19"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -282,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8171" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8535" uniqueCount="811">
   <si>
     <t>фрейм</t>
   </si>
@@ -2480,12 +2481,294 @@
   <si>
     <t>pholder оттенок</t>
   </si>
+  <si>
+    <t>acuto</t>
+  </si>
+  <si>
+    <t>инструмент с острым краем</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -/+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - / +</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>инструмент с острым концом_тонкий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +-</t>
+  </si>
+  <si>
+    <t>инструмент с острым концом_не тонкий</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + appuntito - punta острая</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + сильнее  такой острый, что может убить животное</t>
+  </si>
+  <si>
+    <t>квази-инструмент_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -/+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +- </t>
+  </si>
+  <si>
+    <t>экспериенцер скорее</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -+</t>
+  </si>
+  <si>
+    <t>квази-инструмент_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +уколоть</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + сильнее</t>
+  </si>
+  <si>
+    <t xml:space="preserve">части тела </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + уколоть</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + функция странно</t>
+  </si>
+  <si>
+    <t>a punta + скорее форма</t>
+  </si>
+  <si>
+    <t>affusolato - от fuso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + a punta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +?</t>
+  </si>
+  <si>
+    <t>другие объекты с суж к концу формой</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a punta</t>
+  </si>
+  <si>
+    <t>a punta</t>
+  </si>
+  <si>
+    <t>a punta, appuntito</t>
+  </si>
+  <si>
+    <t>a punta, -</t>
+  </si>
+  <si>
+    <t>a punta? a V</t>
+  </si>
+  <si>
+    <t>a punta, ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a punta, ?</t>
+  </si>
+  <si>
+    <t>математическое</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - (+колонны - если ооочеь тонкий)</t>
+  </si>
+  <si>
+    <t>объекты с продолговатой формой</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + форма</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  +</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + берегите детей</t>
+  </si>
+  <si>
+    <t>колючие объекты</t>
+  </si>
+  <si>
+    <t>резкий, под острым углом</t>
+  </si>
+  <si>
+    <t>по-другому stretta</t>
+  </si>
+  <si>
+    <t>крутой</t>
+  </si>
+  <si>
+    <t>четкий, контрастный</t>
+  </si>
+  <si>
+    <t>по-другому</t>
+  </si>
+  <si>
+    <t>тонкий предмет</t>
+  </si>
+  <si>
+    <t>человеческое (пояснять, что значит)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + резкий</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + колючий характер</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + необщительный, резко отвечает. Да. Spigoloso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + aguzzare l'ingegno</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> умный, все сразу понимает</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + в плохом смысле, злой взгляд</t>
+  </si>
+  <si>
+    <t>хорошо функционирующий (о чувствах)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + </t>
+  </si>
+  <si>
+    <t>еда с пряностями</t>
+  </si>
+  <si>
+    <t>piccante</t>
+  </si>
+  <si>
+    <t>крепкий (или газированный) напиток</t>
+  </si>
+  <si>
+    <t>эмоции</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -?ревность как болезнь</t>
+  </si>
+  <si>
+    <t>отчетливый</t>
+  </si>
+  <si>
+    <t>звуки</t>
+  </si>
+  <si>
+    <t>высокий</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + высокий, писклявый</t>
+  </si>
+  <si>
+    <t>воздействующий на глаза</t>
+  </si>
+  <si>
+    <t>воздействующий на нос</t>
+  </si>
+  <si>
+    <t>погода</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + очень сильный</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +- лучше pungente</t>
+  </si>
+  <si>
+    <t>piccante??+ разница между piccare и pungere</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + лучше tagliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +- холодный и сильный</t>
+  </si>
+  <si>
+    <t>проблема, которую труно решить, люди не хотят ее решать, обсуждать.</t>
+  </si>
+  <si>
+    <t>urgente</t>
+  </si>
+  <si>
+    <t>физиология</t>
+  </si>
+  <si>
+    <t>внезапный</t>
+  </si>
+  <si>
+    <t>brusco ?</t>
+  </si>
+  <si>
+    <t>быстрый</t>
+  </si>
+  <si>
+    <t>взаимодействия</t>
+  </si>
+  <si>
+    <t>aspro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +? La fase acuta</t>
+  </si>
+  <si>
+    <t>изменения</t>
+  </si>
+  <si>
+    <t>affilato</t>
+  </si>
+  <si>
+    <t>tagliente</t>
+  </si>
+  <si>
+    <t>appuntito</t>
+  </si>
+  <si>
+    <t>pungente</t>
+  </si>
+  <si>
+    <t>aguzzo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2518,8 +2801,24 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2559,6 +2858,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2788,7 +3099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2966,6 +3277,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -13587,7 +13905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+    <sheetView topLeftCell="A246" workbookViewId="0">
       <selection activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
@@ -15900,6 +16218,1358 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H153"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="59"/>
+    <col min="2" max="2" width="13.42578125" style="59" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="59" customWidth="1"/>
+    <col min="4" max="4" width="10" style="59" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="59" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="59" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="59" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="59"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="59" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>807</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>808</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>809</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>810</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
+        <v>718</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>723</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>719</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="59" t="s">
+        <v>724</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>725</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>719</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="59" t="s">
+        <v>726</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>727</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>725</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>719</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>725</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="59" t="s">
+        <v>729</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>719</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>731</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>725</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="59" t="s">
+        <v>730</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="64" t="s">
+        <v>719</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>732</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="61" t="s">
+        <v>720</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>732</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D17" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>735</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="59" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="59" t="s">
+        <v>736</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="E19" s="62" t="s">
+        <v>719</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D20" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>737</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D21" s="59" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D22" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D23" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D25" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="E25" s="59" t="s">
+        <v>735</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D26" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>740</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="59" t="s">
+        <v>742</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>743</v>
+      </c>
+      <c r="F27" s="63" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D28" s="59" t="s">
+        <v>745</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>743</v>
+      </c>
+      <c r="F28" s="63" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="63" t="s">
+        <v>746</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>737</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>735</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>747</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="63"/>
+      <c r="D32" s="59" t="s">
+        <v>747</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D34" s="59" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D36" s="59" t="s">
+        <v>748</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="59" t="s">
+        <v>749</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>750</v>
+      </c>
+      <c r="F38" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D39" s="59" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D40" s="59" t="s">
+        <v>752</v>
+      </c>
+      <c r="F40" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D41" s="59" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D42" s="59" t="s">
+        <v>747</v>
+      </c>
+      <c r="F42" s="65" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D43" s="59" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D46" s="59" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D47" s="59" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D48" s="59" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="59" t="s">
+        <v>757</v>
+      </c>
+      <c r="B52" s="59" t="s">
+        <v>758</v>
+      </c>
+      <c r="C52" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D52" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E52" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="F52" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="G52" s="59" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="59" t="s">
+        <v>759</v>
+      </c>
+      <c r="B53" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C53" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D53" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E53" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="F53" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="59" t="s">
+        <v>760</v>
+      </c>
+      <c r="C54" s="59" t="s">
+        <v>761</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>762</v>
+      </c>
+      <c r="E54" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="F54" s="59" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="59" t="s">
+        <v>763</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C55" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E55" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="F55" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C56" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D56" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E56" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="F56" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E57" s="59" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="59" t="s">
+        <v>764</v>
+      </c>
+      <c r="H58" s="59" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="59" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="59" t="s">
+        <v>767</v>
+      </c>
+      <c r="B63" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="H63" s="59" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B65" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B66" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="59" t="s">
+        <v>769</v>
+      </c>
+      <c r="B68" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B69" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="59" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="59" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="59" t="s">
+        <v>770</v>
+      </c>
+      <c r="B72" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C72" s="59" t="s">
+        <v>771</v>
+      </c>
+      <c r="D72" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E72" s="59" t="s">
+        <v>772</v>
+      </c>
+      <c r="F72" s="63" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B73" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C73" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D73" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E73" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="F73" s="59" t="s">
+        <v>774</v>
+      </c>
+      <c r="G73" s="59" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C74" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D74" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E74" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="G74" s="59" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C75" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D75" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="F75" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C76" s="62" t="s">
+        <v>719</v>
+      </c>
+      <c r="D76" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E76" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="F76" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="G76" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D77" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C78" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="D78" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E78" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="G78" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B79" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D79" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C80" s="61" t="s">
+        <v>719</v>
+      </c>
+      <c r="D80" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E80" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="F80" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B81" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C81" s="61" t="s">
+        <v>719</v>
+      </c>
+      <c r="E81" s="59" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B82" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C83" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B85" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C86" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B87" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C87" s="59" t="s">
+        <v>776</v>
+      </c>
+      <c r="D87" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E87" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="F87" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="G87" s="59" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="59" t="s">
+        <v>777</v>
+      </c>
+      <c r="B88" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C88" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D88" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E88" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="G88" s="59" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B89" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C89" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D89" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E89" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="G89" s="59" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="G90" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="59" t="s">
+        <v>779</v>
+      </c>
+      <c r="E91" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="H91" s="59" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="59" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="59" t="s">
+        <v>782</v>
+      </c>
+      <c r="B97" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C97" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D97" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E97" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="F97" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="G97" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G98" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G101" s="59" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="59" t="s">
+        <v>784</v>
+      </c>
+      <c r="E102" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D103" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E103" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D104" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="59" t="s">
+        <v>785</v>
+      </c>
+      <c r="B105" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C105" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D105" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="F105" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="G105" s="59" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C106" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D106" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E106" s="61" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G107" s="59" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="59" t="s">
+        <v>788</v>
+      </c>
+      <c r="B116" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C116" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D116" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="F116" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="G116" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B117" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C117" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E117" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E118" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="59" t="s">
+        <v>789</v>
+      </c>
+      <c r="C119" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D119" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E119" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="F119" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="G119" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="59" t="s">
+        <v>790</v>
+      </c>
+      <c r="B120" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="D120" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E120" s="63" t="s">
+        <v>791</v>
+      </c>
+      <c r="F120" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="G120" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C122" s="63" t="s">
+        <v>792</v>
+      </c>
+      <c r="D122" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E122" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="H122" s="63" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B123" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C123" s="63" t="s">
+        <v>794</v>
+      </c>
+      <c r="D123" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E123" s="63" t="s">
+        <v>795</v>
+      </c>
+      <c r="F123" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C124" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E124" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C125" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E125" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E126" s="59" t="s">
+        <v>796</v>
+      </c>
+      <c r="G126" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="H126" s="59" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H127" s="59" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="59" t="s">
+        <v>798</v>
+      </c>
+      <c r="D129" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E129" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="F129" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="G129" s="59" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D130" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="G130" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E131" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="G131" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G133" s="59" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="59" t="s">
+        <v>799</v>
+      </c>
+      <c r="D136" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="H136" s="59" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="59" t="s">
+        <v>801</v>
+      </c>
+      <c r="B138" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C138" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="G138" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B140" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C140" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="G140" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B141" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C141" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="59" t="s">
+        <v>802</v>
+      </c>
+      <c r="B142" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="E142" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="F142" s="59" t="s">
+        <v>803</v>
+      </c>
+      <c r="G142" s="59" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G143" s="59" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G144" s="59" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G145" s="59" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G147" s="59" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="59" t="s">
+        <v>805</v>
+      </c>
+      <c r="G151" s="59" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G152" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G153" s="59" t="s">
+        <v>722</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
